--- a/templates/Blank.xlsx
+++ b/templates/Blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efinney\Desktop\Chat GPT\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12787DF-34B2-421A-9E82-3B9DEB6A44AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C8F49-F08C-4679-BC64-07F155A769BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,6 +382,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,30 +2006,64 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2059,42 +2115,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3126,51 +3148,71 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>743926</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9634</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF221997-60C7-5D5F-D3AA-FD1256CD0FC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6992326" cy="781159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3465,8 +3507,8 @@
   </sheetPr>
   <dimension ref="A1:J1286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3496,48 +3538,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="158"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
+      <c r="A1" s="175" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
       <c r="G1" s="28"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="28"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
       <c r="G3" s="28"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.2" customHeight="1">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
       <c r="G4" s="28"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3551,8 +3595,8 @@
       <c r="D5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="28"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3585,8 +3629,8 @@
         <v>56</v>
       </c>
       <c r="C8" s="101"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
       <c r="F8" s="138"/>
       <c r="G8" s="29"/>
       <c r="H8" s="1"/>
@@ -3604,81 +3648,81 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
       <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="178"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="183"/>
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="180"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="173"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="133"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
       <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="182"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="134"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="168"/>
       <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="180"/>
-      <c r="B14" s="182"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="134"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="164"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="135"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="164"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="182"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="133"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="161"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="168"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="180"/>
-      <c r="B17" s="182"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="136"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="161"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="168"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" hidden="1" customHeight="1">
@@ -3695,11 +3739,11 @@
     </row>
     <row r="19" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="91"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="4.7" customHeight="1">
@@ -3726,28 +3770,28 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="11.45" customHeight="1">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
       <c r="G22" s="26"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="11.45" customHeight="1">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="183"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
       <c r="G23" s="26"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3765,10 +3809,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="94"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
       <c r="G25" s="27"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -4205,7 +4249,9 @@
       <c r="E50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="115"/>
+      <c r="F50" s="115">
+        <v>0</v>
+      </c>
       <c r="G50" s="26"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4313,13 +4359,13 @@
       <c r="A58" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="157" t="s">
+      <c r="B58" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="26"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4341,13 +4387,13 @@
       <c r="A60" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="157" t="s">
+      <c r="B60" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="157"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
       <c r="G60" s="26"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4369,10 +4415,10 @@
       <c r="A62" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="187" t="s">
+      <c r="B62" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="187"/>
+      <c r="C62" s="163"/>
       <c r="D62" s="117">
         <v>0.5</v>
       </c>
@@ -4402,12 +4448,12 @@
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
       <c r="A64" s="76"/>
-      <c r="B64" s="186" t="s">
+      <c r="B64" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="186"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="186"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
       <c r="F64" s="81"/>
       <c r="G64" s="53"/>
       <c r="H64" s="1"/>
@@ -4430,13 +4476,13 @@
       <c r="A66" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="157" t="s">
+      <c r="B66" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
       <c r="G66" s="57"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4458,13 +4504,13 @@
       <c r="A68" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="188" t="s">
+      <c r="B68" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="188"/>
-      <c r="D68" s="188"/>
-      <c r="E68" s="188"/>
-      <c r="F68" s="188"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
       <c r="G68" s="53"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4472,13 +4518,13 @@
     </row>
     <row r="69" spans="1:10" ht="31.5" customHeight="1">
       <c r="A69" s="76"/>
-      <c r="B69" s="188" t="s">
+      <c r="B69" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="188"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="188"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="164"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="164"/>
       <c r="G69" s="26"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4500,13 +4546,13 @@
       <c r="A71" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="157" t="s">
+      <c r="B71" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="157"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="158"/>
       <c r="G71" s="26"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4528,13 +4574,13 @@
       <c r="A73" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="185" t="s">
+      <c r="B73" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="185"/>
-      <c r="D73" s="185"/>
-      <c r="E73" s="185"/>
-      <c r="F73" s="185"/>
+      <c r="C73" s="161"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
       <c r="G73" s="26"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4556,13 +4602,13 @@
       <c r="A75" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="157" t="s">
+      <c r="B75" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="157"/>
-      <c r="D75" s="157"/>
-      <c r="E75" s="157"/>
-      <c r="F75" s="157"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="26"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4584,13 +4630,13 @@
       <c r="A77" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="157" t="s">
+      <c r="B77" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="157"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
       <c r="G77" s="26"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4612,13 +4658,13 @@
       <c r="A79" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="157" t="s">
+      <c r="B79" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="157"/>
-      <c r="D79" s="157"/>
-      <c r="E79" s="157"/>
-      <c r="F79" s="157"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
       <c r="G79" s="53"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4640,13 +4686,13 @@
       <c r="A81" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="157" t="s">
+      <c r="B81" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="157"/>
-      <c r="D81" s="157"/>
-      <c r="E81" s="157"/>
-      <c r="F81" s="157"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="158"/>
+      <c r="F81" s="158"/>
       <c r="G81" s="26"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4668,13 +4714,13 @@
       <c r="A83" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="157" t="s">
+      <c r="B83" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="157"/>
-      <c r="D83" s="157"/>
-      <c r="E83" s="157"/>
-      <c r="F83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
       <c r="G83" s="26"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4696,13 +4742,13 @@
       <c r="A85" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="157"/>
-      <c r="D85" s="157"/>
-      <c r="E85" s="157"/>
-      <c r="F85" s="157"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="158"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="158"/>
       <c r="G85" s="26"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4724,12 +4770,12 @@
       <c r="A87" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="190" t="s">
+      <c r="B87" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="190"/>
-      <c r="D87" s="190"/>
-      <c r="E87" s="190"/>
+      <c r="C87" s="159"/>
+      <c r="D87" s="159"/>
+      <c r="E87" s="159"/>
       <c r="F87"/>
       <c r="G87" s="26"/>
       <c r="H87" s="1"/>
@@ -4738,10 +4784,10 @@
     </row>
     <row r="88" spans="1:10" ht="6" customHeight="1">
       <c r="A88" s="76"/>
-      <c r="B88" s="190"/>
-      <c r="C88" s="190"/>
-      <c r="D88" s="190"/>
-      <c r="E88" s="190"/>
+      <c r="B88" s="159"/>
+      <c r="C88" s="159"/>
+      <c r="D88" s="159"/>
+      <c r="E88" s="159"/>
       <c r="F88"/>
       <c r="G88" s="53"/>
       <c r="H88" s="1"/>
@@ -4752,13 +4798,13 @@
       <c r="A89" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="157" t="s">
+      <c r="B89" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="157"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="158"/>
       <c r="G89" s="53"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4780,12 +4826,12 @@
       <c r="A91" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="157" t="s">
+      <c r="B91" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="157"/>
-      <c r="D91" s="157"/>
-      <c r="E91" s="157"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
       <c r="F91"/>
       <c r="G91" s="36"/>
       <c r="H91" s="1"/>
@@ -4808,12 +4854,12 @@
       <c r="A93" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="157" t="s">
+      <c r="B93" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="157"/>
-      <c r="D93" s="157"/>
-      <c r="E93" s="157"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
       <c r="F93"/>
       <c r="G93" s="53"/>
       <c r="H93" s="1"/>
@@ -4836,13 +4882,13 @@
       <c r="A95" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="157" t="s">
+      <c r="B95" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="157"/>
-      <c r="D95" s="157"/>
-      <c r="E95" s="157"/>
-      <c r="F95" s="157"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="158"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
       <c r="G95" s="53"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4864,13 +4910,13 @@
       <c r="A97" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="157" t="s">
+      <c r="B97" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="157"/>
-      <c r="D97" s="157"/>
-      <c r="E97" s="157"/>
-      <c r="F97" s="157"/>
+      <c r="C97" s="158"/>
+      <c r="D97" s="158"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="158"/>
       <c r="G97" s="58"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4890,12 +4936,12 @@
     </row>
     <row r="99" spans="1:10" ht="41.25" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="191" t="s">
+      <c r="B99" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="191"/>
-      <c r="D99" s="191"/>
-      <c r="E99" s="191"/>
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
       <c r="F99" s="106"/>
       <c r="G99" s="58"/>
       <c r="H99" s="1"/>
@@ -4916,12 +4962,12 @@
     </row>
     <row r="101" spans="1:10" ht="39.75" customHeight="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="191" t="s">
+      <c r="B101" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="191"/>
-      <c r="D101" s="191"/>
-      <c r="E101" s="191"/>
+      <c r="C101" s="160"/>
+      <c r="D101" s="160"/>
+      <c r="E101" s="160"/>
       <c r="F101" s="106"/>
       <c r="G101" s="60"/>
       <c r="H101" s="1"/>
@@ -4942,12 +4988,12 @@
     </row>
     <row r="103" spans="1:10" ht="29.25" customHeight="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="191" t="s">
+      <c r="B103" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="191"/>
-      <c r="D103" s="191"/>
-      <c r="E103" s="191"/>
+      <c r="C103" s="160"/>
+      <c r="D103" s="160"/>
+      <c r="E103" s="160"/>
       <c r="F103" s="106"/>
       <c r="G103" s="58"/>
       <c r="H103" s="1"/>
@@ -4968,13 +5014,13 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="191" t="s">
+      <c r="B105" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="191"/>
-      <c r="D105" s="191"/>
-      <c r="E105" s="191"/>
-      <c r="F105" s="191"/>
+      <c r="C105" s="160"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="160"/>
       <c r="G105" s="58"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5029,13 +5075,13 @@
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B110" s="189" t="s">
+      <c r="B110" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="189"/>
-      <c r="D110" s="189"/>
-      <c r="E110" s="189"/>
-      <c r="F110" s="189"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
+      <c r="E110" s="157"/>
+      <c r="F110" s="157"/>
       <c r="G110" s="26"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -5053,13 +5099,13 @@
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B112" s="189" t="s">
+      <c r="B112" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="189"/>
-      <c r="D112" s="189"/>
-      <c r="E112" s="189"/>
-      <c r="F112" s="189"/>
+      <c r="C112" s="157"/>
+      <c r="D112" s="157"/>
+      <c r="E112" s="157"/>
+      <c r="F112" s="157"/>
       <c r="G112" s="26"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -11129,6 +11175,43 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataConsolidate/>
   <mergeCells count="53">
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B112:F112"/>
     <mergeCell ref="B85:F85"/>
     <mergeCell ref="B89:F89"/>
@@ -11145,43 +11228,6 @@
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="www.BOYDSIGNSYSTEMS.com                                                                     " xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/templates/Blank.xlsx
+++ b/templates/Blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efinney\Desktop\Chat GPT\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C8F49-F08C-4679-BC64-07F155A769BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DF91C7-70B7-4AAA-8065-3C867DB94F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,78 +308,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>formula needed</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>formula needed</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>formula needed</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -407,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Date:</t>
   </si>
@@ -620,20 +548,6 @@
     <t>of order</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Will house a monitor and a small form factor PC/Player. Will have Mathews Automotive grade paint and laminate accents where applicable. Includes USB powered fans for active assisted ventilation. Must be selected from the Boyd Catalog to honor the listed price. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">This is a touch/non-touch application. </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Tax</t>
   </si>
   <si>
@@ -766,7 +680,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1106,24 +1020,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,14 +1068,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1428,21 +1324,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1457,7 +1338,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1675,10 +1556,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,18 +1745,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1952,22 +1817,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1980,18 +1832,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2006,117 +1846,117 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="48" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="48" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="48" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="48" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3507,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:J1286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3538,100 +3378,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="175" t="e" vm="1">
+      <c r="A1" s="147" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
       <c r="G1" s="28"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="28"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="28"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.2" customHeight="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="28"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
       <c r="G5" s="28"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="11.45" customHeight="1">
-      <c r="C6" s="92"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="38"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1">
-      <c r="B7" s="87"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="73"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="28"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="138"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="134"/>
       <c r="G8" s="29"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3641,109 +3481,109 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="98"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="188"/>
-      <c r="B11" s="189"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="183"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="173"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="150"/>
       <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="173"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="173"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="171"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="173"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="171"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="173"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="168"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="150"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" hidden="1" customHeight="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="43"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="185"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="4.7" customHeight="1">
@@ -3759,39 +3599,39 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A21" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="103"/>
+      <c r="A21" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="102"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="93"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="11.45" customHeight="1">
-      <c r="A22" s="165" t="s">
+      <c r="A22" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
       <c r="G22" s="26"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="11.45" customHeight="1">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="165"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
       <c r="G23" s="26"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3805,63 +3645,61 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
       <c r="G25" s="27"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" ht="25.5">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A26" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="66" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A27" s="95">
+    <row r="27" spans="1:10" s="10" customFormat="1" ht="1.5" hidden="1" customHeight="1">
+      <c r="A27" s="94">
         <v>0</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="126">
+      <c r="A28" s="122">
         <f>+A27+1</f>
         <v>1</v>
       </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="132" t="str">
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="128" t="str">
         <f>IF(D28&lt;&gt;"",D28*E28," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3871,15 +3709,15 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="126">
+      <c r="A29" s="122">
         <f t="shared" ref="A29:A47" si="0">+A28+1</f>
         <v>2</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="132" t="str">
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="128" t="str">
         <f t="shared" ref="F29:F47" si="1">IF(D29&lt;&gt;"",D29*E29," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -3889,15 +3727,15 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="126">
+      <c r="A30" s="122">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="132" t="str">
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3907,15 +3745,15 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="126">
+      <c r="A31" s="122">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="132" t="str">
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3925,15 +3763,15 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="126">
+      <c r="A32" s="122">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="132" t="str">
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3943,15 +3781,15 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="126">
+      <c r="A33" s="122">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="132" t="str">
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3961,15 +3799,15 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="126">
+      <c r="A34" s="122">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="132" t="str">
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3979,15 +3817,15 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="126">
+      <c r="A35" s="122">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="132" t="str">
+      <c r="B35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3997,15 +3835,15 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="126">
+      <c r="A36" s="122">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B36" s="147"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="132" t="str">
+      <c r="B36" s="139"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4015,15 +3853,15 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="126">
+      <c r="A37" s="122">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="132" t="str">
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4033,15 +3871,15 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="126">
+      <c r="A38" s="122">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B38" s="147"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="132" t="str">
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4051,15 +3889,15 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="126">
+      <c r="A39" s="122">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="132" t="str">
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4069,15 +3907,15 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A40" s="126">
+      <c r="A40" s="122">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B40" s="147"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="132" t="str">
+      <c r="B40" s="139"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4087,15 +3925,15 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A41" s="126">
+      <c r="A41" s="122">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="132" t="str">
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4105,15 +3943,15 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A42" s="126">
+      <c r="A42" s="122">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="132" t="str">
+      <c r="B42" s="139"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4123,15 +3961,15 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="126">
+      <c r="A43" s="122">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="132" t="str">
+      <c r="B43" s="139"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4141,15 +3979,15 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A44" s="126">
+      <c r="A44" s="122">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="132" t="str">
+      <c r="B44" s="139"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="128" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4159,16 +3997,16 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A45" s="126">
+      <c r="A45" s="122">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="132" t="str">
-        <f t="shared" si="1"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="128" t="str">
+        <f t="shared" ref="F45:F47" si="2">IF(D45&lt;&gt;"",D45*E45," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G45" s="33"/>
@@ -4177,16 +4015,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="126">
+      <c r="A46" s="122">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B46" s="144"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="132" t="str">
-        <f t="shared" si="1"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="128" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G46" s="33"/>
@@ -4195,16 +4033,16 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="126">
+      <c r="A47" s="122">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="132" t="str">
-        <f t="shared" si="1"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="128" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G47" s="51"/>
@@ -4213,14 +4051,14 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A48" s="131"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124" t="s">
+      <c r="A48" s="127"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="125">
+      <c r="F48" s="121">
         <f>SUM(F28:F47)</f>
         <v>0</v>
       </c>
@@ -4230,26 +4068,26 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="16.149999999999999" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
-      <c r="E49" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="115"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="E49" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="114"/>
       <c r="G49" s="52"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="74"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="110"/>
+    <row r="50" spans="1:10" ht="12" customHeight="1">
+      <c r="A50" s="73"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="109"/>
       <c r="E50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="115">
+      <c r="F50" s="114">
         <v>0</v>
       </c>
       <c r="G50" s="26"/>
@@ -4258,27 +4096,27 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="74"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="111"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="145">
+        <v>71</v>
+      </c>
+      <c r="F51" s="138">
         <v>0</v>
       </c>
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="112"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="12"/>
       <c r="E52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="141">
+        <v>54</v>
+      </c>
+      <c r="F52" s="137">
         <v>0</v>
       </c>
       <c r="G52" s="26"/>
@@ -4288,27 +4126,27 @@
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
       <c r="D53"/>
       <c r="E53" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="116"/>
+      <c r="F53" s="115"/>
       <c r="G53" s="53"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="74"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="50"/>
       <c r="C54" s="16"/>
       <c r="D54" s="17"/>
       <c r="E54" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="113">
+      <c r="F54" s="112">
         <f>+F53+F52+F49+F48+F50</f>
         <v>0</v>
       </c>
@@ -4318,26 +4156,26 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" ht="5.25" customHeight="1">
-      <c r="A55" s="153"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="156"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="145"/>
       <c r="G55" s="54"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A56" s="137" t="s">
+      <c r="A56" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
       <c r="G56" s="55"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4356,27 +4194,27 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="158" t="s">
+      <c r="B58" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
       <c r="G58" s="26"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="2.25" customHeight="1">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
       <c r="F59"/>
       <c r="G59" s="53"/>
       <c r="H59" s="1"/>
@@ -4384,27 +4222,27 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="158" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
+      <c r="B60" s="146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
       <c r="G60" s="26"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" ht="2.25" customHeight="1">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
       <c r="F61"/>
       <c r="G61" s="56"/>
       <c r="H61" s="1"/>
@@ -4412,20 +4250,20 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="163" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="163"/>
-      <c r="D62" s="117">
+      <c r="B62" s="176" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="176"/>
+      <c r="D62" s="116">
         <v>0.5</v>
       </c>
-      <c r="E62" s="77" t="s">
+      <c r="E62" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="78">
+      <c r="F62" s="77">
         <f>+F54*D62</f>
         <v>0</v>
       </c>
@@ -4435,37 +4273,37 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="3" customHeight="1">
-      <c r="A63" s="76"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="80"/>
       <c r="G63" s="26"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="76"/>
-      <c r="B64" s="162" t="s">
+      <c r="A64" s="75"/>
+      <c r="B64" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="162"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="81"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="80"/>
       <c r="G64" s="53"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" ht="8.4499999999999993" customHeight="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
       <c r="F65"/>
       <c r="G65" s="26"/>
       <c r="H65" s="1"/>
@@ -4473,27 +4311,27 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="158" t="s">
+      <c r="B66" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="158"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
       <c r="G66" s="57"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" ht="8.4499999999999993" customHeight="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
       <c r="F67"/>
       <c r="G67" s="26"/>
       <c r="H67" s="1"/>
@@ -4501,41 +4339,41 @@
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="164"/>
-      <c r="D68" s="164"/>
-      <c r="E68" s="164"/>
-      <c r="F68" s="164"/>
+      <c r="B68" s="177" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="177"/>
+      <c r="D68" s="177"/>
+      <c r="E68" s="177"/>
+      <c r="F68" s="177"/>
       <c r="G68" s="53"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="164" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="164"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="164"/>
-      <c r="F69" s="164"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="177"/>
+      <c r="D69" s="177"/>
+      <c r="E69" s="177"/>
+      <c r="F69" s="177"/>
       <c r="G69" s="26"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="4.5" customHeight="1">
-      <c r="A70" s="76"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
       <c r="F70"/>
       <c r="G70" s="53"/>
       <c r="H70" s="1"/>
@@ -4543,27 +4381,27 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="27" customHeight="1">
-      <c r="A71" s="76" t="s">
+      <c r="A71" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="158" t="s">
+      <c r="B71" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="158"/>
-      <c r="D71" s="158"/>
-      <c r="E71" s="158"/>
-      <c r="F71" s="158"/>
+      <c r="C71" s="146"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
       <c r="G71" s="26"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" ht="4.5" customHeight="1">
-      <c r="A72" s="76"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
       <c r="F72"/>
       <c r="G72" s="53"/>
       <c r="H72" s="1"/>
@@ -4571,27 +4409,27 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" ht="39" customHeight="1">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="161" t="s">
+      <c r="B73" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="161"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-      <c r="F73" s="161"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="174"/>
+      <c r="E73" s="174"/>
+      <c r="F73" s="174"/>
       <c r="G73" s="26"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" ht="6" customHeight="1">
-      <c r="A74" s="76"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
       <c r="F74"/>
       <c r="G74" s="53"/>
       <c r="H74" s="1"/>
@@ -4599,27 +4437,27 @@
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="158" t="s">
+      <c r="B75" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="158"/>
-      <c r="D75" s="158"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="158"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="146"/>
       <c r="G75" s="26"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" ht="3" customHeight="1">
-      <c r="A76" s="76"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
       <c r="F76"/>
       <c r="G76" s="53"/>
       <c r="H76" s="1"/>
@@ -4627,27 +4465,27 @@
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="27" customHeight="1">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="158" t="s">
+      <c r="B77" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="158"/>
-      <c r="D77" s="158"/>
-      <c r="E77" s="158"/>
-      <c r="F77" s="158"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="146"/>
       <c r="G77" s="26"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" ht="5.25" customHeight="1">
-      <c r="A78" s="76"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
       <c r="F78"/>
       <c r="G78" s="53"/>
       <c r="H78" s="1"/>
@@ -4655,27 +4493,27 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="158"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="158"/>
-      <c r="F79" s="158"/>
+      <c r="B79" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="146"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="146"/>
       <c r="G79" s="53"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" ht="3" customHeight="1">
-      <c r="A80" s="76"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
       <c r="F80"/>
       <c r="G80" s="26"/>
       <c r="H80" s="1"/>
@@ -4683,27 +4521,27 @@
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="158" t="s">
+      <c r="B81" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="158"/>
-      <c r="D81" s="158"/>
-      <c r="E81" s="158"/>
-      <c r="F81" s="158"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="146"/>
       <c r="G81" s="26"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" ht="6" customHeight="1">
-      <c r="A82" s="76"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
       <c r="F82"/>
       <c r="G82" s="53"/>
       <c r="H82" s="1"/>
@@ -4711,27 +4549,27 @@
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A83" s="76" t="s">
+      <c r="A83" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="158" t="s">
+      <c r="B83" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="158"/>
-      <c r="D83" s="158"/>
-      <c r="E83" s="158"/>
-      <c r="F83" s="158"/>
+      <c r="C83" s="146"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="146"/>
+      <c r="F83" s="146"/>
       <c r="G83" s="26"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" ht="6.75" customHeight="1">
-      <c r="A84" s="76"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
       <c r="F84"/>
       <c r="G84" s="26"/>
       <c r="H84" s="1"/>
@@ -4739,43 +4577,43 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="81" customHeight="1">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="158" t="s">
+      <c r="B85" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="158"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
-      <c r="F85" s="158"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="146"/>
+      <c r="F85" s="146"/>
       <c r="G85" s="26"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" ht="6.75" customHeight="1">
-      <c r="A86" s="76"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="106"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
       <c r="G86" s="26"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" ht="88.5" customHeight="1">
-      <c r="A87" s="76" t="s">
+      <c r="A87" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="159"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="159"/>
+      <c r="B87" s="179" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="179"/>
+      <c r="D87" s="179"/>
+      <c r="E87" s="179"/>
       <c r="F87"/>
       <c r="G87" s="26"/>
       <c r="H87" s="1"/>
@@ -4783,11 +4621,11 @@
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" ht="6" customHeight="1">
-      <c r="A88" s="76"/>
-      <c r="B88" s="159"/>
-      <c r="C88" s="159"/>
-      <c r="D88" s="159"/>
-      <c r="E88" s="159"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="179"/>
+      <c r="C88" s="179"/>
+      <c r="D88" s="179"/>
+      <c r="E88" s="179"/>
       <c r="F88"/>
       <c r="G88" s="53"/>
       <c r="H88" s="1"/>
@@ -4795,27 +4633,27 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" ht="18" customHeight="1">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="158" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="158"/>
-      <c r="F89" s="158"/>
+      <c r="B89" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="146"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
       <c r="G89" s="53"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" ht="6.75" customHeight="1">
-      <c r="A90" s="76"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
       <c r="F90"/>
       <c r="G90" s="53"/>
       <c r="H90" s="1"/>
@@ -4823,15 +4661,15 @@
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A91" s="76" t="s">
+      <c r="A91" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="158" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
+      <c r="B91" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
       <c r="F91"/>
       <c r="G91" s="36"/>
       <c r="H91" s="1"/>
@@ -4839,11 +4677,11 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A92" s="76"/>
-      <c r="B92" s="114"/>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="113"/>
       <c r="F92"/>
       <c r="G92" s="53"/>
       <c r="H92" s="1"/>
@@ -4851,15 +4689,15 @@
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A93" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="158" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="158"/>
-      <c r="D93" s="158"/>
-      <c r="E93" s="158"/>
+      <c r="A93" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="146"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="146"/>
       <c r="F93"/>
       <c r="G93" s="53"/>
       <c r="H93" s="1"/>
@@ -4867,11 +4705,11 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A94" s="76"/>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
+      <c r="D94" s="113"/>
+      <c r="E94" s="113"/>
       <c r="F94"/>
       <c r="G94" s="53"/>
       <c r="H94" s="1"/>
@@ -4879,44 +4717,44 @@
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A95" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" s="158" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="158"/>
-      <c r="D95" s="158"/>
-      <c r="E95" s="158"/>
-      <c r="F95" s="158"/>
+      <c r="A95" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="146"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="146"/>
+      <c r="F95" s="146"/>
       <c r="G95" s="53"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A96" s="76"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="106"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
       <c r="G96" s="53"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A97" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="158"/>
-      <c r="D97" s="158"/>
-      <c r="E97" s="158"/>
-      <c r="F97" s="158"/>
+      <c r="A97" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="146"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="146"/>
       <c r="G97" s="58"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4924,10 +4762,10 @@
     </row>
     <row r="98" spans="1:10" ht="12.75" customHeight="1">
       <c r="A98" s="4"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="106"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
       <c r="F98" s="6"/>
       <c r="G98" s="59"/>
       <c r="H98" s="1"/>
@@ -4936,13 +4774,13 @@
     </row>
     <row r="99" spans="1:10" ht="41.25" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="160" t="s">
+      <c r="B99" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="160"/>
-      <c r="D99" s="160"/>
-      <c r="E99" s="160"/>
-      <c r="F99" s="106"/>
+      <c r="C99" s="180"/>
+      <c r="D99" s="180"/>
+      <c r="E99" s="180"/>
+      <c r="F99" s="105"/>
       <c r="G99" s="58"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4950,11 +4788,11 @@
     </row>
     <row r="100" spans="1:10" ht="9" customHeight="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
       <c r="G100" s="58"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4962,13 +4800,13 @@
     </row>
     <row r="101" spans="1:10" ht="39.75" customHeight="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="160" t="s">
+      <c r="B101" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="160"/>
-      <c r="D101" s="160"/>
-      <c r="E101" s="160"/>
-      <c r="F101" s="106"/>
+      <c r="C101" s="180"/>
+      <c r="D101" s="180"/>
+      <c r="E101" s="180"/>
+      <c r="F101" s="105"/>
       <c r="G101" s="60"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4976,11 +4814,11 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="4"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="106"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
       <c r="G102" s="58"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4988,13 +4826,13 @@
     </row>
     <row r="103" spans="1:10" ht="29.25" customHeight="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="160" t="s">
+      <c r="B103" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="160"/>
-      <c r="D103" s="160"/>
-      <c r="E103" s="160"/>
-      <c r="F103" s="106"/>
+      <c r="C103" s="180"/>
+      <c r="D103" s="180"/>
+      <c r="E103" s="180"/>
+      <c r="F103" s="105"/>
       <c r="G103" s="58"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -5014,13 +4852,13 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="160" t="s">
+      <c r="B105" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
-      <c r="E105" s="160"/>
-      <c r="F105" s="160"/>
+      <c r="C105" s="180"/>
+      <c r="D105" s="180"/>
+      <c r="E105" s="180"/>
+      <c r="F105" s="180"/>
       <c r="G105" s="58"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5051,13 +4889,13 @@
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" ht="31.5">
-      <c r="B108" s="108" t="s">
+      <c r="B108" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
+      <c r="C108" s="107"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="107"/>
+      <c r="F108" s="107"/>
       <c r="G108" s="26"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -5075,13 +4913,13 @@
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B110" s="157" t="s">
+      <c r="B110" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="157"/>
-      <c r="D110" s="157"/>
-      <c r="E110" s="157"/>
-      <c r="F110" s="157"/>
+      <c r="C110" s="178"/>
+      <c r="D110" s="178"/>
+      <c r="E110" s="178"/>
+      <c r="F110" s="178"/>
       <c r="G110" s="26"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -5099,13 +4937,13 @@
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B112" s="157" t="s">
+      <c r="B112" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="157"/>
-      <c r="D112" s="157"/>
-      <c r="E112" s="157"/>
-      <c r="F112" s="157"/>
+      <c r="C112" s="178"/>
+      <c r="D112" s="178"/>
+      <c r="E112" s="178"/>
+      <c r="F112" s="178"/>
       <c r="G112" s="26"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -5134,7 +4972,7 @@
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
-      <c r="B115" s="83" t="s">
+      <c r="B115" s="82" t="s">
         <v>34</v>
       </c>
       <c r="C115"/>
@@ -5162,7 +5000,7 @@
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="26"/>
@@ -5173,7 +5011,7 @@
     <row r="118" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="20"/>
-      <c r="C118" s="68"/>
+      <c r="C118" s="67"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -11175,6 +11013,43 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataConsolidate/>
   <mergeCells count="53">
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="B95:F95"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="D17:F17"/>
@@ -11191,43 +11066,6 @@
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B97:F97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="www.BOYDSIGNSYSTEMS.com                                                                     " xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/templates/Blank.xlsx
+++ b/templates/Blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efinney\Desktop\Chat GPT\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DF91C7-70B7-4AAA-8065-3C867DB94F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54BDCFA-9255-47B7-A687-0C21C7C1353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1846,30 +1846,64 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1921,42 +1955,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1988,1007 +1988,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3379470</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="pic_Ben">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="27117675"/>
-          <a:ext cx="2712720" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>184443</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="pic_Tim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2209800" y="27222450"/>
-          <a:ext cx="2743200" cy="613068"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3319163</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="pic_JimZ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343149" y="26774775"/>
-          <a:ext cx="2519064" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3371850</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="pic_Dennis">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2171700" y="26469975"/>
-          <a:ext cx="2743200" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="pic_Marc">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2219325" y="26479500"/>
-          <a:ext cx="2743200" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2752448</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>60672</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="pic_Jay">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="27070051"/>
-          <a:ext cx="1933298" cy="813146"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="pic_Blank">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2105025" y="26774775"/>
-          <a:ext cx="2924175" cy="790575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="pic_Print">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2209800" y="27155775"/>
-          <a:ext cx="2714625" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="pic_Angie">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2219325" y="26774775"/>
-          <a:ext cx="2743200" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3379470</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="pic_Ben">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDDB2D0-8737-4713-99D1-D01534D640AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="23326725"/>
-          <a:ext cx="2712720" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>184443</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="pic_Tim">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90287F1-DCC7-4AB5-8E3C-9698A626F218}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2209800" y="23431500"/>
-          <a:ext cx="2743200" cy="613068"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3319163</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="pic_JimZ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18ACF9FE-75DD-4AA2-BC38-A3D80FC79D00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343149" y="23307675"/>
-          <a:ext cx="2519064" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3371850</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="pic_Dennis">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8201875D-B565-49DC-A8A0-A0DA595C0CF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2171700" y="23298150"/>
-          <a:ext cx="2743200" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="pic_Marc">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0424617C-DAFE-4FA0-8867-E9CE12D44AA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2219325" y="23307675"/>
-          <a:ext cx="2743200" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2752448</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>60672</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="pic_Jay">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBC6A0F-27D7-4DA0-AA13-E97A5C9D1726}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="23279101"/>
-          <a:ext cx="1933298" cy="813146"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="pic_Blank">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E8E367-5B2E-4A2B-A895-4371D29224FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2105025" y="23307675"/>
-          <a:ext cx="2924175" cy="790575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="pic_Print">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9ED5A7-E08D-4CD8-9395-870FBABBD043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2209800" y="23364825"/>
-          <a:ext cx="2714625" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="pic_Angie">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9808A0-184E-46C8-980B-A6F389810F35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2219325" y="23307675"/>
-          <a:ext cx="2743200" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3347,8 +2346,8 @@
   </sheetPr>
   <dimension ref="A1:J1286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3378,50 +2377,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="147" t="e" vm="1">
+      <c r="A1" s="164" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
       <c r="G1" s="28"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="28"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
       <c r="G3" s="28"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.2" customHeight="1">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
       <c r="G4" s="28"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3435,8 +2434,8 @@
       <c r="D5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
       <c r="G5" s="28"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3469,8 +2468,8 @@
         <v>55</v>
       </c>
       <c r="C8" s="100"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="134"/>
       <c r="G8" s="29"/>
       <c r="H8" s="1"/>
@@ -3488,81 +2487,81 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="165"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="166"/>
-      <c r="B11" s="167"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172"/>
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="129"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="169"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="130"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="130"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="131"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="160"/>
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="169"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="129"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="132"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" hidden="1" customHeight="1">
@@ -3579,11 +2578,11 @@
     </row>
     <row r="19" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="90"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
       <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="4.7" customHeight="1">
@@ -3610,28 +2609,28 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="11.45" customHeight="1">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="26"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="11.45" customHeight="1">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="172"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
       <c r="G23" s="26"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3649,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="93"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="27"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3718,7 +2717,7 @@
       <c r="D29" s="125"/>
       <c r="E29" s="141"/>
       <c r="F29" s="128" t="str">
-        <f t="shared" ref="F29:F47" si="1">IF(D29&lt;&gt;"",D29*E29," ")</f>
+        <f t="shared" ref="F29:F44" si="1">IF(D29&lt;&gt;"",D29*E29," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G29" s="31"/>
@@ -4167,7 +3166,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1">
+    <row r="56" spans="1:10" ht="15">
       <c r="A56" s="133" t="s">
         <v>12</v>
       </c>
@@ -4181,7 +3180,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4197,13 +3196,13 @@
       <c r="A58" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="146"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
       <c r="G58" s="26"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4225,13 +3224,13 @@
       <c r="A60" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
       <c r="G60" s="26"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4253,10 +3252,10 @@
       <c r="A62" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="176" t="s">
+      <c r="B62" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="176"/>
+      <c r="C62" s="152"/>
       <c r="D62" s="116">
         <v>0.5</v>
       </c>
@@ -4286,12 +3285,12 @@
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
       <c r="A64" s="75"/>
-      <c r="B64" s="175" t="s">
+      <c r="B64" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="151"/>
       <c r="F64" s="80"/>
       <c r="G64" s="53"/>
       <c r="H64" s="1"/>
@@ -4314,13 +3313,13 @@
       <c r="A66" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="146" t="s">
+      <c r="B66" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
       <c r="G66" s="57"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4342,13 +3341,13 @@
       <c r="A68" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="177" t="s">
+      <c r="B68" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="177"/>
-      <c r="D68" s="177"/>
-      <c r="E68" s="177"/>
-      <c r="F68" s="177"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="153"/>
+      <c r="F68" s="153"/>
       <c r="G68" s="53"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4356,13 +3355,13 @@
     </row>
     <row r="69" spans="1:10" ht="31.5" customHeight="1">
       <c r="A69" s="75"/>
-      <c r="B69" s="177" t="s">
+      <c r="B69" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="177"/>
-      <c r="D69" s="177"/>
-      <c r="E69" s="177"/>
-      <c r="F69" s="177"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="153"/>
       <c r="G69" s="26"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4384,13 +3383,13 @@
       <c r="A71" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="146" t="s">
+      <c r="B71" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="146"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="147"/>
       <c r="G71" s="26"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4412,13 +3411,13 @@
       <c r="A73" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="174" t="s">
+      <c r="B73" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="174"/>
-      <c r="D73" s="174"/>
-      <c r="E73" s="174"/>
-      <c r="F73" s="174"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="150"/>
       <c r="G73" s="26"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4440,13 +3439,13 @@
       <c r="A75" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="146" t="s">
+      <c r="B75" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="147"/>
       <c r="G75" s="26"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4468,13 +3467,13 @@
       <c r="A77" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
-      <c r="E77" s="146"/>
-      <c r="F77" s="146"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="147"/>
       <c r="G77" s="26"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4496,13 +3495,13 @@
       <c r="A79" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="146" t="s">
+      <c r="B79" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="146"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="146"/>
-      <c r="F79" s="146"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
       <c r="G79" s="53"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4524,13 +3523,13 @@
       <c r="A81" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="146" t="s">
+      <c r="B81" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="146"/>
-      <c r="D81" s="146"/>
-      <c r="E81" s="146"/>
-      <c r="F81" s="146"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="147"/>
       <c r="G81" s="26"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4552,13 +3551,13 @@
       <c r="A83" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="146" t="s">
+      <c r="B83" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="146"/>
-      <c r="D83" s="146"/>
-      <c r="E83" s="146"/>
-      <c r="F83" s="146"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="147"/>
       <c r="G83" s="26"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4580,13 +3579,13 @@
       <c r="A85" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="146" t="s">
+      <c r="B85" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="146"/>
-      <c r="D85" s="146"/>
-      <c r="E85" s="146"/>
-      <c r="F85" s="146"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
       <c r="G85" s="26"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4608,12 +3607,12 @@
       <c r="A87" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="179" t="s">
+      <c r="B87" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="179"/>
-      <c r="D87" s="179"/>
-      <c r="E87" s="179"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
       <c r="F87"/>
       <c r="G87" s="26"/>
       <c r="H87" s="1"/>
@@ -4622,10 +3621,10 @@
     </row>
     <row r="88" spans="1:10" ht="6" customHeight="1">
       <c r="A88" s="75"/>
-      <c r="B88" s="179"/>
-      <c r="C88" s="179"/>
-      <c r="D88" s="179"/>
-      <c r="E88" s="179"/>
+      <c r="B88" s="148"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
       <c r="F88"/>
       <c r="G88" s="53"/>
       <c r="H88" s="1"/>
@@ -4636,13 +3635,13 @@
       <c r="A89" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="146" t="s">
+      <c r="B89" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="146"/>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
       <c r="G89" s="53"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4664,12 +3663,12 @@
       <c r="A91" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="146" t="s">
+      <c r="B91" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="146"/>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
       <c r="F91"/>
       <c r="G91" s="36"/>
       <c r="H91" s="1"/>
@@ -4692,12 +3691,12 @@
       <c r="A93" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="146" t="s">
+      <c r="B93" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="146"/>
-      <c r="D93" s="146"/>
-      <c r="E93" s="146"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="147"/>
+      <c r="E93" s="147"/>
       <c r="F93"/>
       <c r="G93" s="53"/>
       <c r="H93" s="1"/>
@@ -4720,13 +3719,13 @@
       <c r="A95" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B95" s="146" t="s">
+      <c r="B95" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="146"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="146"/>
-      <c r="F95" s="146"/>
+      <c r="C95" s="147"/>
+      <c r="D95" s="147"/>
+      <c r="E95" s="147"/>
+      <c r="F95" s="147"/>
       <c r="G95" s="53"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4748,13 +3747,13 @@
       <c r="A97" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="146" t="s">
+      <c r="B97" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="146"/>
-      <c r="D97" s="146"/>
-      <c r="E97" s="146"/>
-      <c r="F97" s="146"/>
+      <c r="C97" s="147"/>
+      <c r="D97" s="147"/>
+      <c r="E97" s="147"/>
+      <c r="F97" s="147"/>
       <c r="G97" s="58"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4774,12 +3773,12 @@
     </row>
     <row r="99" spans="1:10" ht="41.25" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="180" t="s">
+      <c r="B99" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="180"/>
-      <c r="D99" s="180"/>
-      <c r="E99" s="180"/>
+      <c r="C99" s="149"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="149"/>
       <c r="F99" s="105"/>
       <c r="G99" s="58"/>
       <c r="H99" s="1"/>
@@ -4800,12 +3799,12 @@
     </row>
     <row r="101" spans="1:10" ht="39.75" customHeight="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="180" t="s">
+      <c r="B101" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="180"/>
-      <c r="D101" s="180"/>
-      <c r="E101" s="180"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="149"/>
       <c r="F101" s="105"/>
       <c r="G101" s="60"/>
       <c r="H101" s="1"/>
@@ -4826,12 +3825,12 @@
     </row>
     <row r="103" spans="1:10" ht="29.25" customHeight="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="180" t="s">
+      <c r="B103" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="180"/>
-      <c r="D103" s="180"/>
-      <c r="E103" s="180"/>
+      <c r="C103" s="149"/>
+      <c r="D103" s="149"/>
+      <c r="E103" s="149"/>
       <c r="F103" s="105"/>
       <c r="G103" s="58"/>
       <c r="H103" s="1"/>
@@ -4852,13 +3851,13 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="180" t="s">
+      <c r="B105" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="180"/>
-      <c r="D105" s="180"/>
-      <c r="E105" s="180"/>
-      <c r="F105" s="180"/>
+      <c r="C105" s="149"/>
+      <c r="D105" s="149"/>
+      <c r="E105" s="149"/>
+      <c r="F105" s="149"/>
       <c r="G105" s="58"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4913,13 +3912,13 @@
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B110" s="178" t="s">
+      <c r="B110" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="178"/>
-      <c r="D110" s="178"/>
-      <c r="E110" s="178"/>
-      <c r="F110" s="178"/>
+      <c r="C110" s="146"/>
+      <c r="D110" s="146"/>
+      <c r="E110" s="146"/>
+      <c r="F110" s="146"/>
       <c r="G110" s="26"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4937,13 +3936,13 @@
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B112" s="178" t="s">
+      <c r="B112" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="178"/>
-      <c r="D112" s="178"/>
-      <c r="E112" s="178"/>
-      <c r="F112" s="178"/>
+      <c r="C112" s="146"/>
+      <c r="D112" s="146"/>
+      <c r="E112" s="146"/>
+      <c r="F112" s="146"/>
       <c r="G112" s="26"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -11013,6 +10012,43 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <dataConsolidate/>
   <mergeCells count="53">
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B112:F112"/>
     <mergeCell ref="B85:F85"/>
     <mergeCell ref="B89:F89"/>
@@ -11029,43 +10065,6 @@
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="B101:E101"/>
     <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="www.BOYDSIGNSYSTEMS.com                                                                     " xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -11077,7 +10076,6 @@
     <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classified as Confidential&amp;C&amp;"Arial,Bold"&amp;8Job # &amp;F    &amp;P of &amp;N  &amp;"Arial,Regular"Initials: Boyd &amp;"Segoe Script,Italic"&amp;10&amp;U  bss  &amp;"Arial,Regular"&amp;8&amp;U Client ______&amp;R&amp;8
 </oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>